--- a/optimusinventory-api/sample inventory.xlsx
+++ b/optimusinventory-api/sample inventory.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E2">
         <v>50</v>

--- a/optimusinventory-api/sample inventory.xlsx
+++ b/optimusinventory-api/sample inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Selling Price</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>black pen</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -402,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +493,66 @@
         <v>75</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/optimusinventory-api/sample inventory.xlsx
+++ b/optimusinventory-api/sample inventory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acha Bill\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\version_control\optimusinventory\optimusinventory-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -62,16 +62,31 @@
     <t>black pen</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>Envelope</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>A4 paper</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Toshiba USB 2G</t>
+  </si>
+  <si>
+    <t>500 page square ledger</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
@@ -538,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -551,6 +566,66 @@
       </c>
       <c r="F6">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>12300</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1500</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
